--- a/Backend/Model Metrics/metrics_rfc_Part2_vent.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_Part2_vent.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8663366336633663</v>
+        <v>0.8587174348697395</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8316831683168316</v>
+        <v>0.8217821782178217</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.900990099009901</v>
+        <v>0.8680904522613065</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.6125461254612546</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.9504814305364512</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9326781688069797</v>
+        <v>0.9229470371660282</v>
       </c>
     </row>
   </sheetData>
